--- a/medicine/Enfance/Nadine_Descheneaux/Nadine_Descheneaux.xlsx
+++ b/medicine/Enfance/Nadine_Descheneaux/Nadine_Descheneaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadine Descheneaux est une auteure, journaliste et blogueuse, née à Greenfield Park (Longueuil) en 1977. Elle a publié une quarantaine de titres pour la jeunesse, dont la série à succès Les secrets du divan rose, et trois essais.
 Elle a fini finaliste dans plusieurs compétitions comme le Prix littéraire Hackmatack en 2015.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadine Descheneaux est deux fois boursière en création littéraire au Conseil des arts de Longueuil, soit en 2012 et 2013.
 En 2013, elle reçoit une bourse de Québec Édition / Conseil des arts et des lettres du Québec, pour sa présence au Salon du livre de Paris.
@@ -546,7 +560,9 @@
           <t>Album jeunesse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quels drôles d’orteils !, écrit avec Sophie Rondeau, Éditions du Renouveau pédagogique, 2007.
 Zouzou cachette, Éditions du Renouveau pédagogique, 2010.
@@ -586,7 +602,9 @@
           <t>Roman jeunesse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plus tard, c’est quand ?, Boomerang éditeur jeunesse, 2006.
 Alerte rouge, Boomerang éditeur jeunesse, 2007.
@@ -639,7 +657,9 @@
           <t>Roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'Étape, coll. Sur la route, écrit avec Pierre Labrie, Andara éditeur, 2012.
 La 132, coll. Sur la route, écrit avec Pierre Labrie, Andara éditeur, 2012.
@@ -671,7 +691,9 @@
           <t>Essai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le guide de survie des (Z)imparfaites, écrit avec Nancy Coulombe, chroniques, Éditions Les Intouchables, 2009.
 Assez, c’est assez! Le seul vrai guide du lâcher-prise des (Z)imparfaites, écrit avec Nancy Coulombe, essai, Éditions Druide, 2014.
@@ -703,7 +725,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2015 - Finaliste au Prix littéraire Hackmatack : Mission : espion.
 2015 - Finaliste au Prix littéraire Hackmatack : Destination Monstroville : Moche Café (tome 1).
